--- a/examples/palabra/labs/results.xlsx
+++ b/examples/palabra/labs/results.xlsx
@@ -461,10 +461,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="n">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="D2" t="n">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
@@ -729,62 +729,26 @@
 259: bgp routes are not injected into `ripd` on `as3r1`.
 260: connected routes are not injected into `ripd` on `as3r2`.
 261: bgp routes are not injected into `ripd` on `as3r2`.
-262: The routing table of as1r1 is missing route 2.0.0.0/8
-263: The routing table of as1r1 is missing route 3.0.0.0/8
-264: The routing table of as1r1 is missing route 10.20.1.0/30
-265: The routing table of as1r1 is missing route 20.30.0.0/30
-266: The routing table of as1r1 is missing route 20.30.1.0/30
-267: The routing table of as1r2 is missing route 1.0.0.0/24
-268: The routing table of as1r2 is missing route 1.1.0.0/24
-269: The routing table of as1r2 is missing route 2.0.0.0/8
-270: The routing table of as1r2 is missing route 3.0.0.0/8
-271: The routing table of as1r2 is missing route 10.20.0.0/30
-272: The routing table of as1r2 is missing route 10.20.1.0/30
-273: The routing table of as1r2 is missing route 20.30.0.0/30
-274: The routing table of as1r2 is missing route 20.30.1.0/30
-275: The routing table of as2r1 is missing route 1.0.0.0/8
-276: The routing table of as2r1 is missing route 2.0.0.0/24
-277: The routing table of as2r1 is missing route 2.1.0.0/24
-278: The routing table of as2r1 is missing route 3.0.0.0/8
-279: The routing table of as2r1 is missing route 10.20.0.0/30
-280: The routing table of as2r1 is missing route 10.20.1.0/30
-281: The routing table of as2r1 is missing route 20.30.0.0/30
-282: The routing table of as2r1 is missing route 20.30.1.0/30
-283: The routing table of as2r2 is missing route 1.0.0.0/8
-284: The routing table of as2r2 is missing route 3.0.0.0/8
-285: The routing table of as2r2 is missing route 10.20.0.0/30
-286: The routing table of as2r2 is missing route 20.30.0.0/30
-287: The routing table of as3r1 is missing route 1.0.0.0/8
-288: The routing table of as3r1 is missing route 2.0.0.0/8
-289: The routing table of as3r1 is missing route 3.1.0.0/24
-290: The routing table of as3r1 is missing route 3.2.0.0/24
-291: The routing table of as3r1 is missing route 10.20.0.0/30
-292: The routing table of as3r1 is missing route 10.20.1.0/30
-293: The routing table of as3r1 is missing route 20.30.1.0/30
-294: The routing table of root is missing route 0.0.0.0/0
-295: The routing table of root is missing route 1.1.0.0/24
-296: The routing table of net is missing route 0.0.0.0/0
-297: The routing table of pc is missing route 0.0.0.0/0
-298: The routing table of pc is missing route 3.1.0.0/24
-299: The routing table of local is missing route 0.0.0.0/0
-300: The routing table of local is missing route 3.2.0.0/24
-301: named not started in the startup file of `root`
-302: named not started in the startup file of `root`
-303: named not started in the startup file of `local`
-304: named not started in the startup file of `net`
-305: `resolv.conf` file not found for device `as1r1`
-306: `resolv.conf` file not found for device `as1r2`
-307: `resolv.conf` file not found for device `as2r1`
-308: `resolv.conf` file not found for device `as2r2`
-309: `resolv.conf` file not found for device `as3r1`
-310: `resolv.conf` file not found for device `as3r2`
-311: `resolv.conf` file not found for device `pc`
-312: ping: pc.net: Temporary failure in name resolution
-313: ping: pc.net: Temporary failure in name resolution
-314: ping: pc.net: Temporary failure in name resolution
-315: ping: pc.net: Temporary failure in name resolution
-316: ping: pc.net: Temporary failure in name resolution
-317: ping: pc.net: Temporary failure in name resolution
+262: The routing table of as1r1 have the wrong number of routes: 0, expected: 8
+263: The routing table of as1r2 have the wrong number of routes: 0, expected: 8
+264: The routing table of as2r1 have the wrong number of routes: 0, expected: 8
+265: The routing table of as2r2 have the wrong number of routes: 0, expected: 8
+266: The routing table of as3r1 have the wrong number of routes: 0, expected: 9
+267: The routing table of root have the wrong number of routes: 0, expected: 2
+268: The routing table of net have the wrong number of routes: 0, expected: 2
+269: The routing table of pc have the wrong number of routes: 0, expected: 2
+270: The routing table of local have the wrong number of routes: 0, expected: 2
+271: named not started in the startup file of `root`
+272: named not started in the startup file of `root`
+273: named not started in the startup file of `local`
+274: named not started in the startup file of `net`
+275: `resolv.conf` file not found for device `as1r1`
+276: `resolv.conf` file not found for device `as1r2`
+277: `resolv.conf` file not found for device `as2r1`
+278: `resolv.conf` file not found for device `as2r2`
+279: `resolv.conf` file not found for device `as3r1`
+280: `resolv.conf` file not found for device `as3r2`
+281: `resolv.conf` file not found for device `pc`
 </t>
         </is>
       </c>
@@ -796,17 +760,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>356</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>350</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1: The routing table of as1r1 have the wrong number of routes: 6, expected: 8
+2: The routing table of as1r2 have the wrong number of routes: 5, expected: 8
+3: The routing table of as2r1 have the wrong number of routes: 5, expected: 8
+4: The routing table of as2r2 have the wrong number of routes: 4, expected: 8
+5: The routing table of as3r1 have the wrong number of routes: 7, expected: 9
+6: The routing table of root have the wrong number of routes: 1, expected: 2
+7: The routing table of net have the wrong number of routes: 1, expected: 2
+8: The routing table of pc have the wrong number of routes: 1, expected: 2
+9: The routing table of local have the wrong number of routes: 1, expected: 2
+</t>
         </is>
       </c>
     </row>
@@ -817,13 +790,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C4" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D4" t="n">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
@@ -848,33 +821,33 @@
 19: `as1r1` does not receive any answer from `3.2.0.2`.
 20: `as1r2` does not receive any answer from `1.0.0.2`.
 21: `as1r2` does not receive any answer from `2.1.0.2`.
-22: `as1r2` does not receive any answer from `3.0.0.2`.
-23: `as1r2` does not receive any answer from `3.1.0.1`.
-24: `as1r2` does not receive any answer from `3.1.0.2`.
-25: `as1r2` does not receive any answer from `3.2.0.1`.
-26: `as1r2` does not receive any answer from `3.2.0.2`.
-27: `as1r2` does not receive any answer from `20.30.0.1`.
-28: `as2r1` does not receive any answer from `1.0.0.2`.
-29: `as2r1` does not receive any answer from `2.1.0.2`.
-30: `as2r1` does not receive any answer from `3.1.0.2`.
-31: `as2r1` does not receive any answer from `3.2.0.1`.
-32: `as2r1` does not receive any answer from `3.2.0.2`.
-33: `as2r2` does not receive any answer from `1.0.0.2`.
-34: `as2r2` does not receive any answer from `2.1.0.2`.
-35: ping: connect: Network is unreachable
-36: ping: connect: Network is unreachable
-37: ping: connect: Network is unreachable
-38: `as2r2` does not receive any answer from `3.2.0.2`.
+22: `as1r2` does not receive any answer from `3.1.0.2`.
+23: `as1r2` does not receive any answer from `3.2.0.1`.
+24: `as1r2` does not receive any answer from `3.2.0.2`.
+25: `as2r1` does not receive any answer from `1.0.0.2`.
+26: `as2r1` does not receive any answer from `2.1.0.2`.
+27: `as2r1` does not receive any answer from `3.1.0.2`.
+28: `as2r1` does not receive any answer from `3.2.0.1`.
+29: `as2r1` does not receive any answer from `3.2.0.2`.
+30: `as2r2` does not receive any answer from `1.0.0.2`.
+31: `as2r2` does not receive any answer from `2.1.0.2`.
+32: `as2r2` does not receive any answer from `3.1.0.2`.
+33: `as2r2` does not receive any answer from `3.2.0.1`.
+34: `as2r2` does not receive any answer from `3.2.0.2`.
+35: `as3r1` does not receive any answer from `1.0.0.2`.
+36: `as3r1` does not receive any answer from `2.1.0.2`.
+37: `as3r1` does not receive any answer from `3.1.0.2`.
+38: ping: connect: Network is unreachable
 39: ping: connect: Network is unreachable
-40: `as3r1` does not receive any answer from `1.0.0.2`.
-41: `as3r1` does not receive any answer from `2.0.0.2`.
-42: `as3r1` does not receive any answer from `2.1.0.2`.
-43: `as3r1` does not receive any answer from `3.1.0.2`.
+40: `as3r2` does not receive any answer from `1.0.0.2`.
+41: `as3r2` does not receive any answer from `2.1.0.2`.
+42: `as3r2` does not receive any answer from `3.1.0.2`.
+43: ping: connect: Network is unreachable
 44: ping: connect: Network is unreachable
 45: ping: connect: Network is unreachable
-46: `as3r2` does not receive any answer from `1.0.0.2`.
-47: `as3r2` does not receive any answer from `2.1.0.2`.
-48: `as3r2` does not receive any answer from `3.1.0.2`.
+46: ping: connect: Network is unreachable
+47: ping: connect: Network is unreachable
+48: ping: connect: Network is unreachable
 49: ping: connect: Network is unreachable
 50: ping: connect: Network is unreachable
 51: ping: connect: Network is unreachable
@@ -893,12 +866,12 @@
 64: ping: connect: Network is unreachable
 65: ping: connect: Network is unreachable
 66: ping: connect: Network is unreachable
-67: ping: connect: Network is unreachable
-68: ping: connect: Network is unreachable
-69: ping: connect: Network is unreachable
-70: ping: connect: Network is unreachable
-71: ping: connect: Network is unreachable
-72: ping: connect: Network is unreachable
+67: Device `root` is not running.
+68: Device `root` is not running.
+69: Device `root` is not running.
+70: Device `root` is not running.
+71: Device `root` is not running.
+72: Device `root` is not running.
 73: Device `root` is not running.
 74: Device `root` is not running.
 75: Device `root` is not running.
@@ -915,12 +888,12 @@
 86: Device `root` is not running.
 87: Device `root` is not running.
 88: Device `root` is not running.
-89: Device `root` is not running.
-90: Device `root` is not running.
-91: Device `root` is not running.
-92: Device `root` is not running.
-93: Device `root` is not running.
-94: Device `root` is not running.
+89: Device `net` is not running.
+90: Device `net` is not running.
+91: Device `net` is not running.
+92: Device `net` is not running.
+93: Device `net` is not running.
+94: Device `net` is not running.
 95: Device `net` is not running.
 96: Device `net` is not running.
 97: Device `net` is not running.
@@ -937,12 +910,12 @@
 108: Device `net` is not running.
 109: Device `net` is not running.
 110: Device `net` is not running.
-111: Device `net` is not running.
-112: Device `net` is not running.
-113: Device `net` is not running.
-114: Device `net` is not running.
-115: Device `net` is not running.
-116: Device `net` is not running.
+111: ping: connect: Network is unreachable
+112: ping: connect: Network is unreachable
+113: ping: connect: Network is unreachable
+114: ping: connect: Network is unreachable
+115: ping: connect: Network is unreachable
+116: ping: connect: Network is unreachable
 117: ping: connect: Network is unreachable
 118: ping: connect: Network is unreachable
 119: ping: connect: Network is unreachable
@@ -957,44 +930,32 @@
 128: ping: connect: Network is unreachable
 129: ping: connect: Network is unreachable
 130: ping: connect: Network is unreachable
-131: ping: connect: Network is unreachable
-132: ping: connect: Network is unreachable
-133: ping: connect: Network is unreachable
-134: ping: connect: Network is unreachable
-135: ping: connect: Network is unreachable
-136: ping: connect: Network is unreachable
-137: Device net not in the network scenario.
-138: Device net not in the network scenario.
-139: Device root not in the network scenario.
-140: Device root not in the network scenario.
-141: The peering between as1r1 and 1.0.0.2 is not up.
-142: The peering between as1r2 and 1.0.0.1 is not up.
-143: The routing table of as3r1 is missing route 3.2.0.0/24
-144: The routing table of root is missing route 0.0.0.0/0
-145: The routing table of root is missing route 1.1.0.0/24
-146: The routing table of net is missing route 0.0.0.0/0
-147: The routing table of net is missing route 2.1.0.0/24
-148: The routing table of pc is missing route 0.0.0.0/0
-149: The routing table of pc is missing route 3.1.0.0/24
-150: The routing table of local is missing route 0.0.0.0/0
-151: The routing table of local is missing route 3.2.0.0/24
-152: Device `root` is not running.
-153: Device `root` is not running.
-154: named not started in the startup file of `local`
-155: Device `net` is not running.
-156: `resolv.conf` file not found for device `as1r1`
-157: `resolv.conf` file not found for device `as1r2`
-158: `resolv.conf` file not found for device `as2r1`
-159: `resolv.conf` file not found for device `as2r2`
-160: `resolv.conf` file not found for device `as3r1`
-161: `resolv.conf` file not found for device `as3r2`
-162: The local name server for device `pc` has ip `3.2.0.2`
-163: ping: pc.net: Temporary failure in name resolution
-164: ping: pc.net: Temporary failure in name resolution
-165: ping: pc.net: Temporary failure in name resolution
-166: ping: pc.net: Temporary failure in name resolution
-167: ping: pc.net: Temporary failure in name resolution
-168: ping: pc.net: Temporary failure in name resolution
+131: Device net not in the network scenario.
+132: Device net not in the network scenario.
+133: Device root not in the network scenario.
+134: Device root not in the network scenario.
+135: The peering between as1r1 and 1.0.0.2 is not up.
+136: The peering between as1r2 and 1.0.0.1 is not up.
+137: The routing table of as1r1 have the wrong number of routes: 6, expected: 8
+138: The routing table of as1r2 have the wrong number of routes: 6, expected: 8
+139: The routing table of as2r1 have the wrong number of routes: 5, expected: 8
+140: The routing table of as2r2 have the wrong number of routes: 4, expected: 8
+141: The routing table of as3r1 have the wrong number of routes: 6, expected: 9
+142: The routing table of root have the wrong number of routes: 0, expected: 2
+143: The routing table of net have the wrong number of routes: 0, expected: 2
+144: The routing table of pc have the wrong number of routes: 0, expected: 2
+145: The routing table of local have the wrong number of routes: 0, expected: 2
+146: Device `root` is not running.
+147: Device `root` is not running.
+148: named not started in the startup file of `local`
+149: Device `net` is not running.
+150: `resolv.conf` file not found for device `as1r1`
+151: `resolv.conf` file not found for device `as1r2`
+152: `resolv.conf` file not found for device `as2r1`
+153: `resolv.conf` file not found for device `as2r2`
+154: `resolv.conf` file not found for device `as3r1`
+155: `resolv.conf` file not found for device `as3r2`
+156: The local name server for device `pc` has ip `3.2.0.2`
 </t>
         </is>
       </c>
@@ -1006,30 +967,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1: The peering between as2r2 and 20.30.1.2 is not up.
 2: The session is configured but is in the Active state
-3: `resolv.conf` file not found for device `as1r1`
-4: `resolv.conf` file not found for device `as1r2`
-5: `resolv.conf` file not found for device `as2r1`
-6: `resolv.conf` file not found for device `as2r2`
-7: `resolv.conf` file not found for device `as3r1`
-8: `resolv.conf` file not found for device `as3r2`
-9: ping: pc.net: Temporary failure in name resolution
-10: ping: pc.net: Temporary failure in name resolution
-11: ping: pc.net: Temporary failure in name resolution
-12: ping: pc.net: Temporary failure in name resolution
-13: ping: pc.net: Temporary failure in name resolution
-14: ping: pc.net: Temporary failure in name resolution
+3: The routing table of as1r1 have the wrong number of routes: 6, expected: 8
+4: The routing table of as1r2 have the wrong number of routes: 5, expected: 8
+5: The routing table of as2r1 have the wrong number of routes: 5, expected: 8
+6: The routing table of as2r2 have the wrong number of routes: 4, expected: 8
+7: The routing table of as3r1 have the wrong number of routes: 7, expected: 9
+8: The routing table of root have the wrong number of routes: 1, expected: 2
+9: The routing table of net have the wrong number of routes: 1, expected: 2
+10: The routing table of pc have the wrong number of routes: 1, expected: 2
+11: The routing table of local have the wrong number of routes: 1, expected: 2
+12: `resolv.conf` file not found for device `as1r1`
+13: `resolv.conf` file not found for device `as1r2`
+14: `resolv.conf` file not found for device `as2r1`
+15: `resolv.conf` file not found for device `as2r2`
+16: `resolv.conf` file not found for device `as3r1`
+17: `resolv.conf` file not found for device `as3r2`
 </t>
         </is>
       </c>

--- a/examples/palabra/labs/results.xlsx
+++ b/examples/palabra/labs/results.xlsx
@@ -1060,7 +1060,7 @@
 324: Checking that `3.2.0.2` is the local name server for device `as2r1`: `resolv.conf` file not found for device `as2r1`
 325: Checking that `3.2.0.2` is the local name server for device `as2r2`: `resolv.conf` file not found for device `as2r2`
 326: Checking that `3.2.0.2` is the local name server for device `as3r1`: `resolv.conf` file not found for device `as3r1`
-327: Checking that `3.2.0.2` is the local name server for device `as3</t>
+EXCEL ERROR: Cell too big, not enough space for all the failed tests!</t>
         </is>
       </c>
     </row>
